--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_9_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_9_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.665334536937735e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.665334536937735e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>45.47546440409964</v>
+        <v>44.00308278221021</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[37.796644693066305, 53.154284115132974]</t>
+          <t>[37.45874783809205, 50.547417726328376]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.566079220708425</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.377394977249578, 1.7547634641672722]</t>
+          <t>[1.364816027685655, 1.666710817219811]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>51.02692655886938</v>
+        <v>50.98557058971128</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.91585914844432, 56.137993969294435]</t>
+          <t>[46.743427889954674, 55.227713289467886]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.8828828828831</v>
+        <v>18.04328328328349</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.16756756756777</v>
+        <v>17.47199199199219</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.59819819819842</v>
+        <v>18.6145745745748</v>
       </c>
     </row>
     <row r="3">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -681,11 +681,11 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>53.32846001989428</v>
+        <v>45.01644474860602</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[45.79463219392767, 60.86228784586089]</t>
+          <t>[38.73763331863638, 51.29525617857566]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -695,11 +695,11 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.566079220708425</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 1.7170266154755023]</t>
+          <t>[1.364816027685655, 1.641552918091965]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>51.10624056262343</v>
+        <v>49.41764894389998</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.00097366696296, 56.21150745828389]</t>
+          <t>[45.3535333219127, 53.48176456588727]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.8828828828831</v>
+        <v>18.0908908908911</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.31063063063084</v>
+        <v>17.56720720720741</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.45513513513535</v>
+        <v>18.6145745745748</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="I4" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>45.53575897739067</v>
+        <v>49.42167275962659</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[37.99783813738215, 53.07367981739919]</t>
+          <t>[40.95164488203206, 57.89170063722111]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="O4" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.616395018964117</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.440289725069193, 1.7925003128590413]</t>
+          <t>[1.490605523324886, 1.8679740102425804]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.10482059221142</v>
+        <v>48.78102876590842</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.19628997076742, 58.01335121365543]</t>
+          <t>[43.383409863198885, 54.17864766861796]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17.69213213213234</v>
+        <v>17.42438438438459</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.0245045045047</v>
+        <v>16.71027027027046</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.35975975975998</v>
+        <v>18.13849849849871</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>46.56259695459832</v>
+        <v>46.81572124644862</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[38.09182884315715, 55.03336506603949]</t>
+          <t>[37.89731581382784, 55.7341266790694]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>8.815170815523743e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>8.815170815523743e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.729605565039425</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.528342372016656, 1.9308687580621946]</t>
+          <t>[1.591237119836272, 2.0189214050096567]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>47.3547177509959</v>
+        <v>52.81575688198957</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.179603737258546, 52.529831764733245]</t>
+          <t>[47.53226646115444, 58.0992473028247]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.26294294294315</v>
+        <v>16.9483083083085</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.49993993994014</v>
+        <v>16.13897897897917</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.02594594594616</v>
+        <v>17.75763763763784</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.109423746787797e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.109423746787797e-15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>44.95495054690238</v>
+        <v>48.86586261195967</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[36.47565930484335, 53.434241788961415]</t>
+          <t>[39.60789671454092, 58.12382850937842]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>7.394085344003543e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>7.394085344003543e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>1.867974010242579</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.6792897667837314, 2.0566582537014257]</t>
+          <t>[1.54092132158058, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>49.97924432350007</v>
+        <v>53.30803914860124</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.21893056051764, 54.739558086482496]</t>
+          <t>[47.779147460915965, 58.83693083628651]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16.73837837837858</v>
+        <v>17.18634634634655</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.02306306306326</v>
+        <v>16.42462462462482</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.45369369369391</v>
+        <v>17.94806806806828</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>44.8413351159186</v>
+        <v>44.91161290500328</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[37.31350437699227, 52.36916585484492]</t>
+          <t>[36.433238906047954, 53.38998690395861]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.572520305780927e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.572520305780927e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>1.855395060678656</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.6918687163476545, 2.0189214050096567]</t>
+          <t>[1.7170266154755032, 2.1195530015210418]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>50.28876583054537</v>
+        <v>54.10582091378677</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.96008296818284, 54.61744869290791]</t>
+          <t>[49.169259635147526, 59.04238219242602]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16.78606606606627</v>
+        <v>16.51983983984003</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.16612612612632</v>
+        <v>15.7581181181183</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.40600600600622</v>
+        <v>17.28156156156176</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.48612531059884</v>
+        <v>44.78607887805012</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[37.46337802576507, 55.50887259543262]</t>
+          <t>[36.34125891820024, 53.2308988379]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.612043831755727e-13</v>
+        <v>6.328271240363392e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>1.612043831755727e-13</v>
+        <v>6.328271240363392e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>1.855395060678656</v>
+        <v>1.86797401024258</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.6415529180919615, 2.0692372032653497]</t>
+          <t>[1.666710817219811, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>51.70892456105398</v>
+        <v>50.62860508410989</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.57988900609151, 56.83796011601644]</t>
+          <t>[45.78365448051876, 55.47355568770102]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>16.78606606606627</v>
+        <v>16.71027027027046</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.97537537537556</v>
+        <v>15.94854854854873</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.59675675675697</v>
+        <v>17.47199199199219</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.549516567451064e-14</v>
+        <v>1.942890293094024e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>7.549516567451064e-14</v>
+        <v>1.942890293094024e-14</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.43730158582381</v>
+        <v>48.34359851287255</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.12376937614536, 57.75083379550226]</t>
+          <t>[38.53982408776556, 58.14737293797953]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.393241409024085e-12</v>
+        <v>6.441513988875158e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>5.393241409024085e-12</v>
+        <v>6.441513988875158e-13</v>
       </c>
       <c r="P9" t="n">
-        <v>1.880552959806503</v>
+        <v>1.830237161550811</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.641552918091966, 2.119553001521041]</t>
+          <t>[1.603816069400196, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>51.42922334221565</v>
+        <v>55.72356466345199</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.46221269694237, 57.39623398748893]</t>
+          <t>[49.893428807888206, 61.55370051901577]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>16.69069069069089</v>
+        <v>16.85309309309329</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.78462462462481</v>
+        <v>15.99615615615634</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.59675675675696</v>
+        <v>17.71003003003023</v>
       </c>
     </row>
     <row r="10">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.82000000000028</v>
+        <v>23.78000000000028</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1283,25 +1283,25 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>52.78027459006054</v>
+        <v>48.94349420997616</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[44.18673849443711, 61.373810685683964]</t>
+          <t>[39.26356188419066, 58.62342653576166]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.930988785010413e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.930988785010413e-13</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930868758062195</v>
+        <v>2.056658253701427</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.7673424137311944, 2.094395102393195]</t>
+          <t>[1.8679740102425804, 2.245342497160273]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>49.97731066703329</v>
+        <v>55.13066480154065</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.14167490903426, 54.812946425032315]</t>
+          <t>[50.06403508827741, 60.1972945148039]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.49993993994014</v>
+        <v>15.99615615615634</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.88000000000019</v>
+        <v>15.28204204204222</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.11987987988009</v>
+        <v>16.71027027027046</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.72000000000027</v>
+        <v>23.71000000000027</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>9.880984919163893e-15</v>
       </c>
       <c r="I11" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>9.880984919163893e-15</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.30418704755137</v>
+        <v>47.95236722965571</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[38.662748171677514, 57.94562592342522]</t>
+          <t>[38.095353211638084, 57.80938124767333]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.914646384828302e-13</v>
+        <v>9.809930645587883e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>3.914646384828302e-13</v>
+        <v>9.809930645587883e-13</v>
       </c>
       <c r="P11" t="n">
-        <v>1.918289808498272</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.7170266154755032, 2.1195530015210418]</t>
+          <t>[1.591237119836272, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>51.61497462040582</v>
+        <v>52.41944099093101</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.3479114572748, 56.88203778353684]</t>
+          <t>[46.75303344762549, 58.085848534236526]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.47815815815834</v>
+        <v>16.85095095095114</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.71835835835854</v>
+        <v>15.99653653653672</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.23795795795815</v>
+        <v>17.70536536536556</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.72000000000027</v>
+        <v>23.71000000000027</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I12" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>45.09549758369643</v>
+        <v>46.18053301041137</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[35.97825614124381, 54.212739026149045]</t>
+          <t>[37.69265110740975, 54.668414913412995]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.857536677922326e-13</v>
+        <v>2.731148640577885e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>5.857536677922326e-13</v>
+        <v>2.731148640577885e-14</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83023716155081</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.616395018964118, 2.0440793041375027]</t>
+          <t>[1.7421845146033492, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>54.72299239126809</v>
+        <v>47.98543125501081</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.53276661672096, 59.91321816581522]</t>
+          <t>[43.37688984051889, 52.593972669502726]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16.81057057057076</v>
+        <v>16.4712112112114</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.00328328328347</v>
+        <v>15.80666666666685</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.61785785785806</v>
+        <v>17.13575575575595</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.72000000000027</v>
+        <v>23.71000000000027</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>45.50641567413039</v>
+        <v>48.91035753534821</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[36.461738376800895, 54.55109297145988]</t>
+          <t>[40.04750399682388, 57.773211073872545]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.426148253993233e-13</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>3.426148253993233e-13</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.094395102393196</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.8931319093704264, 2.295658295415965]</t>
+          <t>[1.7547634641672722, 2.132131951084965]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>51.81250444567553</v>
+        <v>50.6593307614455</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.9792819763045, 56.64572691504656]</t>
+          <t>[45.796098362941386, 55.52256315994962]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.81333333333351</v>
+        <v>16.37627627627646</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.0535335335337</v>
+        <v>15.66426426426444</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.57313313313332</v>
+        <v>17.08828828828848</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.72000000000027</v>
+        <v>23.71000000000027</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>3.441691376337985e-15</v>
       </c>
       <c r="I14" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>3.441691376337985e-15</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>49.788809481824</v>
+        <v>48.77657611107381</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[38.67254931106455, 60.90506965258344]</t>
+          <t>[38.07295567789517, 59.48019654425244]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.183497744250417e-11</v>
+        <v>7.108980071279802e-12</v>
       </c>
       <c r="O14" t="n">
-        <v>1.183497744250417e-11</v>
+        <v>7.108980071279802e-12</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06923720326535</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.8302371615508113, 2.308237244979888]</t>
+          <t>[1.8931319093704264, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>52.80605736221488</v>
+        <v>53.36831310378949</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.985504010932424, 58.626610713497335]</t>
+          <t>[47.76253691752744, 58.97408929005154]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15.90830830830849</v>
+        <v>15.75919919919938</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.00604604604622</v>
+        <v>14.95225225225242</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.81057057057076</v>
+        <v>16.56614614614633</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_9_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_9_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.549516567451064e-15</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.549516567451064e-15</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.00308278221021</v>
+        <v>42.85080194098982</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[37.45874783809205, 50.547417726328376]</t>
+          <t>[35.41191245030546, 50.28969143167418]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.666710817219811]</t>
+          <t>[1.389973926813501, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>50.98557058971128</v>
+        <v>48.69811540681207</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.743427889954674, 55.227713289467886]</t>
+          <t>[43.66516119857299, 53.731069615051155]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.04328328328349</v>
+        <v>17.8426826826829</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.47199199199219</v>
+        <v>17.12706706706727</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.6145745745748</v>
+        <v>18.55829829829852</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.386180225106727e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.386180225106727e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.01644474860602</v>
+        <v>43.78082786103827</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.73763331863638, 51.29525617857566]</t>
+          <t>[35.10181506464431, 52.459840657432224]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.155253835984695e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.155253835984695e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.50318447288881</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.641552918091965]</t>
+          <t>[1.490605523324887, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>49.41764894389998</v>
+        <v>47.44044052952604</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.3535333219127, 53.48176456588727]</t>
+          <t>[42.06709163067186, 52.81378942838021]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.0908908908911</v>
+        <v>17.41331331331352</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.56720720720741</v>
+        <v>16.64998998999019</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.6145745745748</v>
+        <v>18.17663663663685</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I4" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>49.42167275962659</v>
+        <v>48.61575266413242</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[40.95164488203206, 57.89170063722111]</t>
+          <t>[41.95446718547142, 55.27703814279342]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.679289766783733</v>
+        <v>1.553500271144501</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.490605523324886, 1.8679740102425804]</t>
+          <t>[1.4025528763774249, 1.7044476659115775]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>48.78102876590842</v>
+        <v>53.41607415887913</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.383409863198885, 54.17864766861796]</t>
+          <t>[49.01774928383202, 57.814399033926236]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17.42438438438459</v>
+        <v>17.93809809809832</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.71027027027046</v>
+        <v>17.36560560560582</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.13849849849871</v>
+        <v>18.51059059059081</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>46.81572124644862</v>
+        <v>45.2334130250905</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[37.89731581382784, 55.7341266790694]</t>
+          <t>[36.972622488770305, 53.49420356141069]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.815170815523743e-14</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>8.815170815523743e-14</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.805079262422964</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.591237119836272, 2.0189214050096567]</t>
+          <t>[1.540921321580579, 1.9182898084982716]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.81575688198957</v>
+        <v>50.51417602981916</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.53226646115444, 58.0992473028247]</t>
+          <t>[45.41889671263724, 55.60945534700108]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.9483083083085</v>
+        <v>17.2701901901904</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.13897897897917</v>
+        <v>16.55457457457478</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.75763763763784</v>
+        <v>17.98580580580602</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.109423746787797e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>2.109423746787797e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48.86586261195967</v>
+        <v>47.23242102051573</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[39.60789671454092, 58.12382850937842]</t>
+          <t>[38.78571179774901, 55.67913024328245]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7.394085344003543e-14</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>7.394085344003543e-14</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>1.742184514603349</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 1.9434477076261185]</t>
+          <t>[1.628973968528042, 2.0063424554457328]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>53.30803914860124</v>
+        <v>52.42048752607129</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.779147460915965, 58.83693083628651]</t>
+          <t>[47.498839561088715, 57.34213549105387]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>17.18634634634655</v>
+        <v>16.93623623623644</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.42462462462482</v>
+        <v>16.22062062062082</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.94806806806828</v>
+        <v>17.65185185185206</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>44.91161290500328</v>
+        <v>43.80336619275613</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.433238906047954, 53.38998690395861]</t>
+          <t>[35.06310500003782, 52.54362738547444]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.572520305780927e-14</v>
+        <v>3.876898801991047e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>6.572520305780927e-14</v>
+        <v>3.876898801991047e-13</v>
       </c>
       <c r="P7" t="n">
-        <v>1.918289808498272</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.7170266154755032, 2.1195530015210418]</t>
+          <t>[1.515763422452733, 1.9434477076261176]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.10582091378677</v>
+        <v>48.40935728252025</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.169259635147526, 59.04238219242602]</t>
+          <t>[42.95859652536338, 53.86011803967711]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16.51983983984003</v>
+        <v>17.2701901901904</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.7581181181183</v>
+        <v>16.45915915915936</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.28156156156176</v>
+        <v>18.08122122122144</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>44.78607887805012</v>
+        <v>46.34285401899012</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[36.34125891820024, 53.2308988379]</t>
+          <t>[38.88671870693728, 53.798989331042954]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.328271240363392e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O8" t="n">
-        <v>6.328271240363392e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86797401024258</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.666710817219811, 2.0692372032653497]</t>
+          <t>[1.6667108172198102, 2.0189214050096567]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>50.62860508410989</v>
+        <v>46.15966893029342</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.78365448051876, 55.47355568770102]</t>
+          <t>[41.85891482307836, 50.460423037508484]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>16.71027027027046</v>
+        <v>16.84082082082102</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.94854854854873</v>
+        <v>16.17291291291311</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.47199199199219</v>
+        <v>17.50872872872894</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.942890293094024e-14</v>
+        <v>1.200151089619794e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>1.942890293094024e-14</v>
+        <v>1.200151089619794e-13</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.34359851287255</v>
+        <v>45.77070504523726</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.53982408776556, 58.14737293797953]</t>
+          <t>[35.709123173123245, 55.83228691735127]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.441513988875158e-13</v>
+        <v>7.487122033467131e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>6.441513988875158e-13</v>
+        <v>7.487122033467131e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>1.830237161550811</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.603816069400196, 2.0566582537014266]</t>
+          <t>[1.591237119836272, 2.0692372032653488]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>55.72356466345199</v>
+        <v>54.15298233411721</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.893428807888206, 61.55370051901577]</t>
+          <t>[48.314722135011074, 59.99124253322335]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>16.85309309309329</v>
+        <v>16.88852852852873</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.99615615615634</v>
+        <v>15.98208208208228</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.71003003003023</v>
+        <v>17.79497497497519</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.78000000000028</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.521005543736464e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.521005543736464e-14</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>48.94349420997616</v>
+        <v>48.93831171757962</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[39.26356188419066, 58.62342653576166]</t>
+          <t>[38.524730998307916, 59.351892436851315]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.930988785010413e-13</v>
+        <v>2.826405776090724e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>2.930988785010413e-13</v>
+        <v>2.826405776090724e-12</v>
       </c>
       <c r="P10" t="n">
-        <v>2.056658253701427</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.8679740102425804, 2.245342497160273]</t>
+          <t>[1.7296055650394244, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>55.13066480154065</v>
+        <v>57.32857290281434</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[50.06403508827741, 60.1972945148039]</t>
+          <t>[51.45952978971171, 63.19761601591698]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.99615615615634</v>
+        <v>16.36374374374394</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.28204204204222</v>
+        <v>15.45729729729748</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.71027027027046</v>
+        <v>17.2701901901904</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.71000000000027</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>9.880984919163893e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>9.880984919163893e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>47.95236722965571</v>
+        <v>50.48270984089604</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[38.095353211638084, 57.80938124767333]</t>
+          <t>[41.326853278796804, 59.63856640299528]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>9.809930645587883e-13</v>
+        <v>1.754152378907747e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>9.809930645587883e-13</v>
+        <v>1.754152378907747e-14</v>
       </c>
       <c r="P11" t="n">
-        <v>1.817658211986887</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.591237119836272, 2.0440793041375027]</t>
+          <t>[1.578658170272349, 1.9560266571900415]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.41944099093101</v>
+        <v>47.20189680551959</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.75303344762549, 58.085848534236526]</t>
+          <t>[41.76090788142514, 52.64288572961404]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.85095095095114</v>
+        <v>16.97613613613632</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.99653653653672</v>
+        <v>16.266826826827</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.70536536536556</v>
+        <v>17.68544544544563</v>
       </c>
     </row>
     <row r="12">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.71000000000027</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1455,25 +1455,25 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>46.18053301041137</v>
+        <v>51.87246812059141</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[37.69265110740975, 54.668414913412995]</t>
+          <t>[43.257305383738135, 60.48763085744468]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.731148640577885e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O12" t="n">
-        <v>2.731148640577885e-14</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="P12" t="n">
-        <v>1.918289808498272</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.7421845146033492, 2.0943951023931957]</t>
+          <t>[1.616395018964118, 1.9686056067539646]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>47.98543125501081</v>
+        <v>50.33363494944109</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.37688984051889, 52.593972669502726]</t>
+          <t>[45.1793556279971, 55.487914270885085]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16.4712112112114</v>
+        <v>16.88156156156174</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.80666666666685</v>
+        <v>16.21953953953971</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.13575575575595</v>
+        <v>17.54358358358377</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.71000000000027</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="I13" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>48.91035753534821</v>
+        <v>43.04349689405244</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[40.04750399682388, 57.773211073872545]</t>
+          <t>[34.723964394165066, 51.36302939393981]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.709743457922741e-14</v>
+        <v>1.407762795224698e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.709743457922741e-14</v>
+        <v>1.407762795224698e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.943447707626119</v>
+        <v>2.056658253701426</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.7547634641672722, 2.132131951084965]</t>
+          <t>[1.8553950606786556, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>50.6593307614455</v>
+        <v>51.88998007970192</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[45.796098362941386, 55.52256315994962]</t>
+          <t>[47.258690057038585, 56.52127010236526]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.37627627627646</v>
+        <v>15.8885285285287</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.66426426426444</v>
+        <v>15.13193193193209</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.08828828828848</v>
+        <v>16.64512512512531</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.71000000000027</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.441691376337985e-15</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="I14" t="n">
-        <v>3.441691376337985e-15</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>48.77657611107381</v>
+        <v>47.02289588987782</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[38.07295567789517, 59.48019654425244]</t>
+          <t>[37.46888809379929, 56.57690368595634]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7.108980071279802e-12</v>
+        <v>6.832312493543213e-13</v>
       </c>
       <c r="O14" t="n">
-        <v>7.108980071279802e-12</v>
+        <v>6.832312493543213e-13</v>
       </c>
       <c r="P14" t="n">
-        <v>2.106974051957119</v>
+        <v>2.044079304137503</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.8931319093704264, 2.320816194543811]</t>
+          <t>[1.8428161111147325, 2.245342497160273]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>53.36831310378949</v>
+        <v>54.47443273708451</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[47.76253691752744, 58.97408929005154]</t>
+          <t>[49.369744873397536, 59.57912060077149]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15.75919919919938</v>
+        <v>15.93581581581599</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.95225225225242</v>
+        <v>15.17921921921938</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.56614614614633</v>
+        <v>16.6924124124126</v>
       </c>
     </row>
   </sheetData>
